--- a/Data/Miggy/Facebook - Fox News.xlsx
+++ b/Data/Miggy/Facebook - Fox News.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgeam\Documents\Data for Project 3\Data\Miggy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BB966A-262A-41E3-B984-A531772610F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9727BA-FF1B-4389-884F-9FE96668DA5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18504" yWindow="7488" windowWidth="17280" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="2700" windowWidth="17280" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9000,15 +9000,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q645"/>
+  <dimension ref="A1:Q322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="255.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9061,7 +9065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -9114,7 +9118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -9167,7 +9171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -9220,7 +9224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9273,7 +9277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -9379,7 +9383,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -9432,7 +9436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -9485,7 +9489,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -9591,7 +9595,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -9697,7 +9701,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -9750,7 +9754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -9803,7 +9807,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -9856,7 +9860,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -9909,7 +9913,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9962,7 +9966,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -10015,7 +10019,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -10068,7 +10072,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -10121,7 +10125,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -10174,7 +10178,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -10227,7 +10231,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -10280,7 +10284,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -10333,7 +10337,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -10386,7 +10390,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -10439,7 +10443,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -10492,7 +10496,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10545,7 +10549,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -10598,7 +10602,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -10704,7 +10708,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -10757,7 +10761,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>325</v>
       </c>
@@ -10810,7 +10814,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -10863,7 +10867,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -10916,7 +10920,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -10969,7 +10973,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -11075,7 +11079,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -11128,7 +11132,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -11181,7 +11185,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -11234,7 +11238,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -11287,7 +11291,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -11393,7 +11397,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -11499,7 +11503,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -11552,7 +11556,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -11605,7 +11609,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -11658,7 +11662,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -11711,7 +11715,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -11764,7 +11768,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -11817,7 +11821,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -11870,7 +11874,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -11923,7 +11927,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -11976,7 +11980,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -12029,7 +12033,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -12082,7 +12086,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -12135,7 +12139,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -12188,7 +12192,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -12241,7 +12245,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -12294,7 +12298,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -12347,7 +12351,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -12400,7 +12404,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -12453,7 +12457,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -12506,7 +12510,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -12559,7 +12563,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -12612,7 +12616,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -12665,7 +12669,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -12718,7 +12722,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -12771,7 +12775,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -12824,7 +12828,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -12877,7 +12881,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -12930,7 +12934,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -12983,7 +12987,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -13036,7 +13040,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -13089,7 +13093,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -13142,7 +13146,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -13195,7 +13199,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -13248,7 +13252,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -13301,7 +13305,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -13354,7 +13358,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -13407,7 +13411,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -13460,7 +13464,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -13513,7 +13517,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -13566,7 +13570,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -13619,7 +13623,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -13672,7 +13676,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -13725,7 +13729,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -13778,7 +13782,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -13831,7 +13835,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -13884,7 +13888,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -13937,7 +13941,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -13990,7 +13994,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -14043,7 +14047,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -14096,7 +14100,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -14149,7 +14153,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -14202,7 +14206,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -14255,7 +14259,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -14308,7 +14312,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -14361,7 +14365,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -14414,7 +14418,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -14467,7 +14471,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -14573,7 +14577,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -14626,7 +14630,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -14679,7 +14683,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -14732,7 +14736,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -14785,7 +14789,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -14838,7 +14842,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -14891,7 +14895,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -14944,7 +14948,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -14997,7 +15001,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -15050,7 +15054,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -15103,7 +15107,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -15156,7 +15160,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -15209,7 +15213,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -15262,7 +15266,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -15315,7 +15319,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -15368,7 +15372,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -15421,7 +15425,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -15474,7 +15478,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -15527,7 +15531,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>116</v>
       </c>
@@ -15580,7 +15584,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -15633,7 +15637,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -15686,7 +15690,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -15739,7 +15743,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -15792,7 +15796,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -15845,7 +15849,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -15898,7 +15902,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -15951,7 +15955,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -16004,7 +16008,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -16057,7 +16061,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -16110,7 +16114,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -16163,7 +16167,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -16216,7 +16220,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -16269,7 +16273,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -16322,7 +16326,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -16375,7 +16379,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -16428,7 +16432,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -16481,7 +16485,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -16534,7 +16538,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -16587,7 +16591,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -16640,7 +16644,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -16693,7 +16697,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -16746,7 +16750,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -16799,7 +16803,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -16852,7 +16856,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -16905,7 +16909,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -16958,7 +16962,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -17011,7 +17015,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -17064,7 +17068,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -17117,7 +17121,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -17170,7 +17174,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -17223,7 +17227,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -17276,7 +17280,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -17329,7 +17333,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -17382,7 +17386,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -17435,7 +17439,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -17488,7 +17492,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -17541,7 +17545,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -17594,7 +17598,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -17647,7 +17651,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -17700,7 +17704,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -17753,7 +17757,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -17806,7 +17810,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -17859,7 +17863,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -17912,7 +17916,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -17965,7 +17969,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -18018,7 +18022,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -18071,7 +18075,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -18124,7 +18128,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -18177,7 +18181,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -18230,7 +18234,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -18283,7 +18287,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -18336,7 +18340,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -18389,7 +18393,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -18442,7 +18446,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -18495,7 +18499,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -18548,7 +18552,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -18601,7 +18605,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -18654,7 +18658,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -18707,7 +18711,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -18760,7 +18764,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -18813,7 +18817,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -18866,7 +18870,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -18919,7 +18923,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -18972,7 +18976,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -19025,7 +19029,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -19078,7 +19082,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -19131,7 +19135,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -19184,7 +19188,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -19237,7 +19241,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -19290,7 +19294,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -19343,7 +19347,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -19396,7 +19400,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -19449,7 +19453,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -19502,7 +19506,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -19555,7 +19559,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -19608,7 +19612,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -19661,7 +19665,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -19714,7 +19718,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -19767,7 +19771,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -19820,7 +19824,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -19873,7 +19877,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -19926,7 +19930,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -19979,7 +19983,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -20032,7 +20036,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -20085,7 +20089,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -20138,7 +20142,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -20191,7 +20195,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -20244,7 +20248,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -20297,7 +20301,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -20350,7 +20354,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -20403,7 +20407,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>116</v>
       </c>
@@ -20456,7 +20460,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -20509,7 +20513,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -20562,7 +20566,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -20615,7 +20619,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -20668,7 +20672,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -20721,7 +20725,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -20774,7 +20778,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>116</v>
       </c>
@@ -20827,7 +20831,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -20880,7 +20884,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -20933,7 +20937,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -20986,7 +20990,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -21039,7 +21043,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -21092,7 +21096,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -21145,7 +21149,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>116</v>
       </c>
@@ -21198,7 +21202,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -21251,7 +21255,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -21304,7 +21308,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -21357,7 +21361,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -21410,7 +21414,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -21463,7 +21467,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -21516,7 +21520,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -21569,7 +21573,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -21622,7 +21626,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -21675,7 +21679,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -21728,7 +21732,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -21781,7 +21785,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -21834,7 +21838,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -21887,7 +21891,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -21940,7 +21944,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -21993,7 +21997,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -22046,7 +22050,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -22099,7 +22103,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -22152,7 +22156,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -22205,7 +22209,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -22258,7 +22262,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -22311,7 +22315,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -22364,7 +22368,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -22417,7 +22421,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -22470,7 +22474,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -22523,7 +22527,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -22576,7 +22580,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -22629,7 +22633,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -22682,7 +22686,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -22735,7 +22739,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -22788,7 +22792,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -22841,7 +22845,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -22894,7 +22898,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -22947,7 +22951,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -23000,7 +23004,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -23053,7 +23057,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -23106,7 +23110,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -23159,7 +23163,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -23212,7 +23216,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>116</v>
       </c>
@@ -23265,7 +23269,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -23318,7 +23322,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -23371,7 +23375,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -23424,7 +23428,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -23477,7 +23481,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -23530,7 +23534,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>116</v>
       </c>
@@ -23583,7 +23587,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -23636,7 +23640,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>116</v>
       </c>
@@ -23689,7 +23693,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>116</v>
       </c>
@@ -23742,7 +23746,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -23795,7 +23799,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -23848,7 +23852,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>116</v>
       </c>
@@ -23901,7 +23905,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -23954,7 +23958,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -24007,7 +24011,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -24060,7 +24064,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -24113,7 +24117,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -24166,7 +24170,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -24219,7 +24223,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -24272,7 +24276,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -24325,7 +24329,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -24378,7 +24382,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -24431,7 +24435,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -24484,7 +24488,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -24537,7 +24541,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -24590,7 +24594,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -24643,7 +24647,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="296" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -24696,7 +24700,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -24749,7 +24753,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="298" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -24802,7 +24806,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="299" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -24855,7 +24859,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="300" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -24908,7 +24912,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="301" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -24961,7 +24965,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -25014,7 +25018,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -25067,7 +25071,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -25120,7 +25124,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -25173,7 +25177,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -25226,7 +25230,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -25279,7 +25283,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -25332,7 +25336,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -25385,7 +25389,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -25438,7 +25442,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="311" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -25491,7 +25495,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="312" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -25544,7 +25548,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="313" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -25597,7 +25601,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="314" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -25650,7 +25654,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>17</v>
       </c>
@@ -25703,7 +25707,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="316" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -25756,7 +25760,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="317" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>17</v>
       </c>
@@ -25809,7 +25813,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="318" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>17</v>
       </c>
@@ -25862,7 +25866,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="319" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>116</v>
       </c>
@@ -25915,7 +25919,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="320" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>116</v>
       </c>
@@ -25968,7 +25972,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="321" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>17</v>
       </c>
@@ -26021,7 +26025,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="322" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>17</v>
       </c>
@@ -26074,47 +26078,6 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="325" spans="1:17" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="333" spans="1:17" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:Q322" xr:uid="{80F3DC1C-1752-422A-8242-011C8EE2ED1C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
